--- a/work.xlsx
+++ b/work.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaojianjin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaojianjin/Desktop/jxjweb.top/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="54320" yWindow="13220" windowWidth="24000" windowHeight="15500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37880" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="列表" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日期</t>
   </si>
@@ -54,19 +54,54 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>前端工作表</t>
-    <rPh sb="0" eb="1">
-      <t>qian'duan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gon'zuo'biao</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>学习 gulp</t>
     <rPh sb="0" eb="1">
       <t>xuw'xi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习后端知识</t>
+    <rPh sb="0" eb="1">
+      <t>fu'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hou'duan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'shi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改维护登录订单账户</t>
+    <rPh sb="0" eb="1">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'hu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>den'lu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>din'dan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhan'hu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要工作记录</t>
+    <rPh sb="0" eb="1">
+      <t>zu'yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gon'zuo'biao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'lu</t>
     </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -599,7 +634,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -611,7 +646,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
@@ -619,7 +654,7 @@
     </row>
     <row r="2" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -650,23 +685,23 @@
         <v>42933</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="6">
+        <v>42933</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="6">
+        <v>42934</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
